--- a/_doc/2018-newsletter-localizations.xlsx
+++ b/_doc/2018-newsletter-localizations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rwd-newsletter-2018\_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38640" windowHeight="23120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38640" windowHeight="23115" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="newsletter" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Language</t>
   </si>
@@ -97,13 +102,52 @@
   </si>
   <si>
     <t>https://www.youtube.com/user/VOAvideo</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Encuéntrelo en BBG Direct</t>
+  </si>
+  <si>
+    <t>Siga leyendo</t>
+  </si>
+  <si>
+    <t>Conéctese con VOA</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LaVozdeAmerica/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/voanoticias/</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>https://twitter.com/VOANoticias</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/vozdeamerica</t>
+  </si>
+  <si>
+    <t>Suscribirse a este boletín</t>
+  </si>
+  <si>
+    <t>Dejar de recibir este boletín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver este correo en su buscador </t>
+  </si>
+  <si>
+    <t>editor@voanews.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +159,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,20 +210,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -497,30 +560,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -602,7 +665,55 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="M3" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
